--- a/2 semester/LogicBase/WorkSpace/Lab11/calc.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab11/calc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>D</t>
   </si>
@@ -117,9 +117,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Y(2МДНФ) = A'C</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -175,13 +172,19 @@
   </si>
   <si>
     <t>Ф</t>
+  </si>
+  <si>
+    <t>Y(2СкДНФ) = A'C+A'CD'</t>
+  </si>
+  <si>
+    <t>A'CD'    (обязательная)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +218,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +283,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -440,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,7 +531,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,6 +573,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,23 +606,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,21 +956,21 @@
       <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="44">
+      <c r="A2" s="38">
         <v>2142</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="G2" s="47" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -941,14 +988,14 @@
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="49">
-        <v>1</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="G3" s="43">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4">
@@ -969,11 +1016,11 @@
       <c r="G4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4">
@@ -994,13 +1041,13 @@
       <c r="G5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4">
@@ -1021,11 +1068,11 @@
       <c r="G6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4">
@@ -1046,13 +1093,13 @@
       <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4">
@@ -1087,14 +1134,14 @@
       <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4">
@@ -1141,16 +1188,16 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="25">
-        <v>1</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1170,16 +1217,16 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>2</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1199,37 +1246,37 @@
       <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>3</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>4</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="44">
+      <c r="A15" s="38">
         <v>8421</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -1272,16 +1319,16 @@
       <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="25">
-        <v>1</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1297,14 +1344,14 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>2</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
@@ -1318,14 +1365,14 @@
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>3</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4">
@@ -1357,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="21"/>
-      <c r="H21" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="21"/>
+      <c r="H21" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="47"/>
       <c r="J21" s="21"/>
       <c r="M21" s="20"/>
     </row>
@@ -1390,12 +1437,12 @@
         <v>0</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4">
@@ -1409,7 +1456,7 @@
       <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="44" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="3"/>
@@ -1438,24 +1485,24 @@
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="24">
       <c r="A26" s="5">
         <v>9</v>
       </c>
@@ -1467,286 +1514,324 @@
       <c r="E26" s="14">
         <v>1</v>
       </c>
+      <c r="H26" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="H27" s="24" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="G28" s="15"/>
+      <c r="H28" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="G30" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="G31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="G32" s="24">
+        <v>1</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13">
+      <c r="G33" s="30">
+        <v>2</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13">
+      <c r="G34" s="30">
+        <v>3</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13">
+      <c r="G35" s="27">
+        <v>4</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="G29" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="G30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="J35" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13">
+      <c r="G36" s="18">
+        <v>5</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="7:13">
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J38" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="G31" s="25">
-        <v>1</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="25" t="s">
+    <row r="39" spans="7:13">
+      <c r="G39" s="35">
+        <v>1</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="7:13">
+      <c r="G40" s="35">
+        <v>2</v>
+      </c>
+      <c r="H40" s="56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="G32" s="31">
-        <v>2</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="31" t="s">
+      <c r="I40" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="7:13">
+      <c r="G41" s="24">
+        <v>3</v>
+      </c>
+      <c r="H41" s="49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="7:13">
-      <c r="G33" s="31">
-        <v>3</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="31" t="s">
+      <c r="I41" s="28"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="7:13">
+      <c r="G42" s="24">
+        <v>4</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="7:13">
+      <c r="G43" s="26">
+        <v>5</v>
+      </c>
+      <c r="H43" s="26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="7:13">
-      <c r="G34" s="28">
-        <v>4</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="7:13">
-      <c r="G35" s="18">
-        <v>5</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="7:13">
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="7:13">
-      <c r="G37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="7:13">
-      <c r="G38" s="36">
-        <v>1</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="7:13">
-      <c r="G39" s="36">
-        <v>2</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="7:13">
-      <c r="G40" s="25">
-        <v>3</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="7:13">
-      <c r="G41" s="25">
-        <v>4</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-    </row>
-    <row r="42" spans="7:13">
-      <c r="G42" s="27">
-        <v>5</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="7:13">
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
     </row>
     <row r="44" spans="7:13">
       <c r="G44" s="21"/>
-      <c r="H44" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="42"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
     </row>
-    <row r="46" spans="7:13">
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="43" t="s">
+    <row r="45" spans="7:13">
+      <c r="G45" s="21"/>
+      <c r="H45" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="47"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="47" spans="7:13">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-    </row>
-    <row r="47" spans="7:13">
-      <c r="G47" s="39" t="s">
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+    </row>
+    <row r="48" spans="7:13">
+      <c r="G48" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="25" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="K48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="7:13" ht="24">
-      <c r="G48" s="39"/>
-      <c r="H48" s="23" t="s">
+    </row>
+    <row r="49" spans="7:13" ht="24">
+      <c r="G49" s="44"/>
+      <c r="H49" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="54"/>
+    </row>
+    <row r="50" spans="7:13" ht="24">
+      <c r="H50" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="M50" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="8:13" ht="24">
-      <c r="H49" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
+    </row>
+    <row r="51" spans="7:13">
+      <c r="H51" s="37"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="7:13">
+      <c r="H52" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13">
-      <c r="H50" s="38"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="8:13">
-      <c r="H51" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="24"/>
+      <c r="I52" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="G2:L2"/>
@@ -1755,13 +1840,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I46:M46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
